--- a/Assets/Resources/Configs/Excel/FoundryConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/FoundryConfig.xlsx
@@ -435,13 +435,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
   </cols>
@@ -481,6 +481,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Configs/Excel/FoundryConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/FoundryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="8340"/>
+    <workbookView windowWidth="28700" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Foundry" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -435,10 +435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -506,6 +506,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Configs/Excel/FoundryConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/FoundryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="13040"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Foundry" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -438,7 +438,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
